--- a/data/case1/15/P2_2.xlsx
+++ b/data/case1/15/P2_2.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.33884106152275706</v>
+        <v>0.41337446758495844</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0099999998269986179</v>
+        <v>-0.0099999993379817909</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0089999998248071478</v>
+        <v>-0.0089999993260967415</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.011999999954703355</v>
+        <v>-0.011999999822380758</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0059999998284512301</v>
+        <v>-0.005999999334366457</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0059999998251782927</v>
+        <v>-0.005999999312507498</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.01999999979225997</v>
+        <v>-0.019999999184349804</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.019999999789665601</v>
+        <v>-0.019999999175364991</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0059999998186901493</v>
+        <v>-0.0059999992893775556</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0059999998159199208</v>
+        <v>-0.0059999992795027879</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0044999998194299451</v>
+        <v>-0.0044999992921894716</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0059999998151698541</v>
+        <v>-0.0059999992763120069</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0059999998122810538</v>
+        <v>-0.0059999992659651724</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.011999999797621008</v>
+        <v>-0.011999999209188594</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0059999998106716745</v>
+        <v>-0.0059999992604833352</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0059999998100173091</v>
+        <v>-0.0059999992583550377</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0059999998091697648</v>
+        <v>-0.0059999992554580217</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0089999998020813265</v>
+        <v>-0.0089999992280036523</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0089999998288368133</v>
+        <v>-0.080696626370335256</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0089999998235530398</v>
+        <v>-0.0089999993389913158</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0089999998223517785</v>
+        <v>-0.0089999993381848498</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.065458775778069356</v>
+        <v>-0.0089999993376146392</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.019126906633427865</v>
+        <v>-0.0089999993201566042</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.041999999744592564</v>
+        <v>-0.041999999015025935</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.041999999743118188</v>
+        <v>-0.041999999009869171</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.055222328783099073</v>
+        <v>-0.0059999993113599714</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0059999998248145836</v>
+        <v>-0.0059999993097470394</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0059999998233610796</v>
+        <v>-0.0059999993036328192</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.011999999808784523</v>
+        <v>-0.011999999246397053</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.019999999790199841</v>
+        <v>-0.019999999173756056</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.032864787900134473</v>
+        <v>0.042219946345333881</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.020999999787833623</v>
+        <v>-0.020999999163428207</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0059999998220900963</v>
+        <v>-0.019675579393311438</v>
       </c>
     </row>
   </sheetData>
